--- a/outputs/MIAMI3.xlsx
+++ b/outputs/MIAMI3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The subgoal of finding Assignment 7 is clearly aligned with Abi's overall goal of submitting Assignment 7. The page prominently displays an "Assignment 7" button on the right side, which is likely to catch Abi's attention. This aligns with Abi's motivation to complete the task and their comprehensive information processing style, as the button is clearly labeled and directly related to the subgoal.</t>
+Why: The page clearly shows "Assignment 7" on the right side under the "Coming Up" section. This aligns with Abi's motivation to submit Assignment 7 and her comprehensive information processing style, as she would likely read through the page to find relevant information. The visibility of "Assignment 7" would make her think of this as a step toward achieving her overall use case.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Assignment 7" link under the "Coming Up" section is clearly labeled and prominently displayed on the page. This makes it straightforward for Abi to understand that clicking this link is the next step toward finding Assignment 7. The clear labeling aligns with Abi's motivation to complete the task and their comprehensive information processing style, as it provides a direct and obvious path to the desired subgoal.</t>
+Why: The "Assignment 7" link is clearly visible under the "Coming Up" section, making it straightforward for Abi to identify what to do next. This aligns with her motivation to submit Assignment 7 and her comprehensive information processing style, as she would likely read through the page and recognize the link as relevant to her task. The page provides enough context for her to confidently take this action.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Assignment 7" link, Abi lands on a page that provides some information about Project 7, including a link to an external site and a button to load the assignment in a new window. However, the page layout is cluttered and not well-organized, which might overwhelm Abi. The instructions are not immediately clear, and the presence of multiple links and buttons without clear guidance can be confusing. Given Abi's low computer self-efficacy and preference for comprehensive information processing, Abi might not feel confident that they are making progress toward their goal or have all the information needed to proceed.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
+Why: While Abi will know she is on the Assignment 7 page, the page is cluttered and lacks clear instructions on how to proceed with submitting the assignment. The presence of multiple links and the instruction to load the assignment in a new browser window might confuse her. Given Abi's comprehensive information processing style, she might find it difficult to gather all the necessary information from this page. Additionally, her low computer self-efficacy and preference for process-oriented learning mean she might struggle without clear, step-by-step instructions.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page provides a link to an external site (GitHub) without much context or explanation about what Abi should expect to find or do there. Given Abi's low computer self-efficacy and preference for comprehensive information processing, this lack of clear guidance can be confusing and intimidating. Additionally, Abi's process-oriented learning style means they prefer step-by-step instructions, which are not provided here. This might make Abi hesitant to click the link, as they are unsure if it will help them achieve their subgoal of finding Assignment 7.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page contains a link to an external site (GitHub) without providing clear instructions on what to expect or what to do after clicking the link. Given Abi's low computer self-efficacy, she might be hesitant to click on a link that leads to an unfamiliar site without more information. Additionally, her preference for process-oriented learning means she would benefit from step-by-step instructions, which are not provided here. This lack of guidance could make her unsure about taking this action.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the GitHub link, Abi lands on a page that confirms the assignment has been accepted and provides a link to the assignment repository. However, the page does not provide clear instructions on what to do next or how to proceed with the assignment. Given Abi's preference for comprehensive information processing and low computer self-efficacy, the lack of detailed guidance and next steps can be confusing and may leave Abi uncertain about whether they are making progress toward their goal. Additionally, the page layout is sparse and may not provide enough context for Abi to feel confident that they have all the information needed.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
+Why: While the page indicates that Abi has accepted the assignment and provides a link to the assignment repository, it does not provide clear instructions on what to do next. Given Abi's comprehensive information processing style, she might find the lack of detailed guidance confusing. Additionally, her low computer self-efficacy and preference for process-oriented learning mean she would benefit from more explicit, step-by-step instructions. The page does not provide all the information she needs to feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The homepage does not provide any direct indication or link to Gradescope for submitting assignments. Given Abi's comprehensive information processing style, they would need clear and explicit instructions to understand that going to Gradescope is a necessary step. Additionally, Abi's low computer self-efficacy means they are less likely to make assumptions or take actions without clear guidance. Without any mention of Gradescope on this page, Abi might not think of it as a step toward submitting Assignment 7.</t>
+Why: The page does not provide any explicit information or links related to Gradescope. Given Abi's comprehensive information processing style, she would need clear and direct information to understand that going to Gradescope is a necessary step. Additionally, her low computer self-efficacy means she might not make the connection on her own without explicit guidance. Therefore, she is unlikely to think of going to Gradescope as a step toward submitting Assignment 7 based on the information available on this page.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Assignment 7" link under the "Coming Up" section does not provide any indication that it will lead Abi to Gradescope for submission. Given Abi's comprehensive information processing style, they would need clear and explicit instructions to understand that clicking this link is a step toward submitting the assignment. Additionally, Abi's low computer self-efficacy means they are less likely to take actions without clear guidance. Without any mention of Gradescope or submission instructions on this page, Abi might not know that clicking the "Assignment 7" link is the correct action to take.</t>
+Why: The page does not provide any explicit information or indication that clicking on the "Assignment 7" link will lead Abi to Gradescope for submission. Given Abi's comprehensive information processing style, she would need clear and direct information to understand that this action is necessary. Additionally, her low computer self-efficacy means she might be hesitant to click on a link without knowing exactly what it will do. Therefore, the page is not good enough for Abi to confidently take this action.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Assignment 7" link, Abi lands on a page that provides information about Project 7 and includes a link to an external site (GitHub). However, there is no mention of Gradescope or instructions on how to submit the assignment. Given Abi's comprehensive information processing style, they would need clear and explicit instructions to understand that they need to go to Gradescope to submit the assignment. Additionally, Abi's low computer self-efficacy means they are less likely to feel confident that they are making progress toward their goal without clear guidance. The lack of information about submission on this page can leave Abi uncertain about the next steps.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
+Why: After clicking the "Assignment 7" link, Abi lands on a page that provides information about the assignment but does not mention Gradescope or provide clear instructions on how to submit the assignment. Given Abi's comprehensive information processing style, she would need explicit guidance to understand that she needs to go to Gradescope. Additionally, her low computer self-efficacy and preference for process-oriented learning mean she would struggle without clear, step-by-step instructions. The page does not provide all the information she needs to feel confident that she is making progress toward her goal of submitting the assignment on Gradescope.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page provides a "Load Assignment 7 in a new window" button, but it does not clearly indicate that this action will lead Abi to Gradescope for submission. Given Abi's comprehensive information processing style, they would need explicit instructions to understand that this is the correct step toward submitting the assignment. Additionally, Abi's low computer self-efficacy and preference for process-oriented learning mean they are less likely to take actions without clear guidance. The lack of specific information about Gradescope or submission on this page can leave Abi uncertain about whether clicking this button is the right action to take.</t>
+Why: The page contains a button labeled "Load Assignment 7 in a new window," but it does not provide clear instructions on what will happen after clicking the button or how it relates to submitting the assignment on Gradescope. Given Abi's comprehensive information processing style, she would need more explicit guidance to understand that this action is necessary. Additionally, her low computer self-efficacy and preference for process-oriented learning mean she might be hesitant to click the button without knowing exactly what it will do. Therefore, the page is not good enough for Abi to confidently take this action.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Load Assignment 7 in a new window," Abi lands on the Gradescope page, which lists all active assignments, including "Project 7." The page is well-organized and clearly shows the assignment details, including the due date and submission status. This aligns with Abi's motivation to submit the assignment and their comprehensive information processing style, as the page provides all the necessary information in a clear and structured manner. Abi will know they are making progress toward their goal and have all the information needed to proceed with the submission.</t>
+Why: After clicking "Load Assignment 7 in a new window," Abi lands on the Gradescope page, which clearly lists "Project 7" along with its due date and submission status. This page provides a clear indication that she is in the right place to submit her assignment. Given Abi's motivation to submit Assignment 7 and her comprehensive information processing style, she will recognize that she is making progress toward her goal. The page is well-organized and provides all the necessary information for her to proceed with the submission.</t>
         </is>
       </c>
     </row>
